--- a/plots/Figure 1.xlsx
+++ b/plots/Figure 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\EP-LikeMindedness\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0CF11B-7E82-4B4C-AE6B-2FE41A68610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F013E8-1649-4A80-AE4D-DE53B7EFBD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6743,7 +6743,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15898,35 +15898,35 @@
         <v>0.622</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D164" si="37">C133-C$2</f>
+        <f t="shared" ref="D133:D160" si="37">C133-C$2</f>
         <v>-0.16674074074074063</v>
       </c>
       <c r="E133">
         <v>0.83</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" ref="F133:F164" si="38">E133-E$2</f>
+        <f t="shared" ref="F133:F160" si="38">E133-E$2</f>
         <v>0.19370370370370382</v>
       </c>
       <c r="G133">
         <v>0.74250000000000005</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" ref="H133:H164" si="39">G133-G$2</f>
+        <f t="shared" ref="H133:H160" si="39">G133-G$2</f>
         <v>-9.775925925925899E-2</v>
       </c>
       <c r="I133">
         <v>0.4788</v>
       </c>
       <c r="J133" s="1">
-        <f t="shared" ref="J133:J164" si="40">I133-I$2</f>
+        <f t="shared" ref="J133:J160" si="40">I133-I$2</f>
         <v>-0.2922407407407408</v>
       </c>
       <c r="K133">
         <v>0.50900000000000001</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" ref="L133:L164" si="41">K133-K$2</f>
+        <f t="shared" ref="L133:L160" si="41">K133-K$2</f>
         <v>-0.10674074074074069</v>
       </c>
       <c r="M133" s="1">
@@ -15934,7 +15934,7 @@
         <v>0.62242549279621495</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" ref="N133:N164" si="43">M133-$M$2</f>
+        <f t="shared" ref="N133:N160" si="43">M133-$M$2</f>
         <v>-0.10014268108521529</v>
       </c>
       <c r="O133" s="1">
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="S133" s="7" t="str">
-        <f t="shared" ref="S133:S164" si="45">IF(Q133=0,"",R133/Q133)</f>
+        <f t="shared" ref="S133:S160" si="45">IF(Q133=0,"",R133/Q133)</f>
         <v/>
       </c>
       <c r="T133" s="8" t="str" cm="1">

--- a/plots/Figure 1.xlsx
+++ b/plots/Figure 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\EP-LikeMindedness\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F013E8-1649-4A80-AE4D-DE53B7EFBD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D95FA-3760-4B24-B8AF-6A847E69BB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3573,28 +3573,7 @@
                 </a:solidFill>
                 <a:latin typeface="HelveticaNeue Light" panose="00000400000000000000" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>b) Natural gas production (left axis) and Reserves-to-Production ratio (right axis) </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="it-IT" sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="E7E6E6">
-                    <a:lumMod val="25000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:latin typeface="HelveticaNeue Light" panose="00000400000000000000" pitchFamily="2" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="E7E6E6">
-                    <a:lumMod val="25000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:latin typeface="HelveticaNeue Light" panose="00000400000000000000" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>of selected potential EU gas suppliers.</a:t>
+              <a:t>b) Natural gas production (left axis) and R/P ratio (right axis) of selected potential EU gas suppliers.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5973,14 +5952,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>353572</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>156216</xdr:rowOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>74570</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5995,8 +5974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16927286" y="15076716"/>
-          <a:ext cx="12600000" cy="4320000"/>
+          <a:off x="16811625" y="15566570"/>
+          <a:ext cx="12545572" cy="4320000"/>
           <a:chOff x="16927286" y="15076716"/>
           <a:chExt cx="12600000" cy="4320000"/>
         </a:xfrm>
@@ -6037,8 +6016,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="19982860" y="16184217"/>
-            <a:ext cx="0" cy="3088822"/>
+            <a:off x="19982860" y="15974667"/>
+            <a:ext cx="0" cy="3420000"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -6072,7 +6051,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18218189" y="16192500"/>
+            <a:off x="18218189" y="15982950"/>
             <a:ext cx="1719189" cy="303866"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6145,7 +6124,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="20008771" y="16192500"/>
+            <a:off x="20008771" y="15982950"/>
             <a:ext cx="1127232" cy="303866"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6195,7 +6174,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="19641615" y="16496366"/>
+            <a:off x="19641615" y="16286816"/>
             <a:ext cx="331304" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -6233,7 +6212,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="19992209" y="16496366"/>
+            <a:off x="19992209" y="16286816"/>
             <a:ext cx="331304" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -6739,11 +6718,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G168" sqref="G168"/>
+      <selection pane="bottomRight" activeCell="T200" sqref="T200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
